--- a/Testning/Martins sammanställning.xlsx
+++ b/Testning/Martins sammanställning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>Test 1</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>teal: 23</t>
+  </si>
+  <si>
+    <t>200-400 Hz</t>
+  </si>
+  <si>
+    <t>400-800 Hz</t>
+  </si>
+  <si>
+    <t>800-1600 Hz</t>
+  </si>
+  <si>
+    <t>1600-3200 Hz</t>
+  </si>
+  <si>
+    <t>3200-6400 Hz</t>
+  </si>
+  <si>
+    <t>6400-12800 Hz</t>
   </si>
 </sst>
 </file>
@@ -1103,11 +1121,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="110745472"/>
-        <c:axId val="110747648"/>
+        <c:axId val="19533824"/>
+        <c:axId val="19535744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110745472"/>
+        <c:axId val="19533824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110747648"/>
+        <c:crossAx val="19535744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1149,7 +1167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110747648"/>
+        <c:axId val="19535744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110745472"/>
+        <c:crossAx val="19533824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2475,11 +2493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112001408"/>
-        <c:axId val="112003328"/>
+        <c:axId val="103312000"/>
+        <c:axId val="103344000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112001408"/>
+        <c:axId val="103312000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112003328"/>
+        <c:crossAx val="103344000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2588,7 +2606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112003328"/>
+        <c:axId val="103344000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112001408"/>
+        <c:crossAx val="103312000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -3679,11 +3697,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112068096"/>
-        <c:axId val="112070016"/>
+        <c:axId val="129470848"/>
+        <c:axId val="129473536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112068096"/>
+        <c:axId val="129470848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,7 +3772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112070016"/>
+        <c:crossAx val="129473536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3762,7 +3780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112070016"/>
+        <c:axId val="129473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3818,7 +3836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112068096"/>
+        <c:crossAx val="129470848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -3865,51 +3883,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sv-SE"/>
-              <a:t>Slagljud</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sv-SE" baseline="0"/>
-              <a:t> - </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sv-SE"/>
-              <a:t>Bandspärrfilter</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32717366579177604"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2222222222222223E-2"/>
+          <c:y val="0.19008311461067368"/>
+          <c:w val="0.93888888888888888"/>
+          <c:h val="0.34450823855351415"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Position 1 </c:v>
+            <c:strRef>
+              <c:f>Blad1!$L$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3919,40 +3925,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -3992,7 +3998,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Position 2 </c:v>
+            <c:strRef>
+              <c:f>Blad1!$L$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4002,40 +4016,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4075,7 +4089,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Position 3 </c:v>
+            <c:strRef>
+              <c:f>Blad1!$L$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4085,40 +4107,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4164,7 +4186,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Position 4 </c:v>
+            <c:strRef>
+              <c:f>Blad1!$L$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4174,40 +4204,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4244,7 +4274,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Position 5 </c:v>
+            <c:strRef>
+              <c:f>Blad1!$L$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -4254,40 +4292,40 @@
                 <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>200-400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2</c:v>
+                    <c:v>400-800 Hz</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3</c:v>
+                    <c:v>800-1600 Hz</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>4</c:v>
+                    <c:v>1600-3200 Hz</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>5</c:v>
+                    <c:v>3200-6400 Hz</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>6</c:v>
+                    <c:v>6400-12800 Hz</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -4321,7 +4359,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4329,47 +4366,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="112137728"/>
-        <c:axId val="112139648"/>
+        <c:gapWidth val="95"/>
+        <c:overlap val="100"/>
+        <c:axId val="78594048"/>
+        <c:axId val="78595584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112137728"/>
+        <c:axId val="78594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>De olika alternativen för bandspärrfilter. 1-6</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.15445975503062118"/>
-              <c:y val="0.88331000291630213"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112139648"/>
+        <c:crossAx val="78595584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4377,52 +4389,31 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112139648"/>
+        <c:axId val="78595584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Antal</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112137728"/>
+        <c:crossAx val="78594048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.82112576552930883"/>
-          <c:y val="0.21426035287255765"/>
-          <c:w val="0.16498534558180228"/>
-          <c:h val="0.41858595800524934"/>
+          <c:x val="0.36065704286964134"/>
+          <c:y val="0.12025481189851268"/>
+          <c:w val="9.2574803149606311E-2"/>
+          <c:h val="0.4494579323417906"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4503,16 +4494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4533,20 +4524,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Diagram 10"/>
+        <xdr:cNvPr id="16" name="Diagram 15"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4853,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6481,41 +6472,41 @@
         <v>37</v>
       </c>
       <c r="K76" s="43"/>
-      <c r="M76" s="46">
-        <v>1</v>
-      </c>
-      <c r="N76" s="49">
-        <v>2</v>
-      </c>
-      <c r="O76" s="58">
-        <v>3</v>
-      </c>
-      <c r="P76" s="57">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="26">
-        <v>5</v>
-      </c>
-      <c r="R76" s="44">
-        <v>6</v>
-      </c>
-      <c r="S76" s="46">
-        <v>1</v>
-      </c>
-      <c r="T76" s="58">
-        <v>2</v>
-      </c>
-      <c r="U76" s="58">
-        <v>3</v>
-      </c>
-      <c r="V76" s="57">
-        <v>4</v>
-      </c>
-      <c r="W76" s="26">
-        <v>5</v>
-      </c>
-      <c r="X76" s="44">
-        <v>6</v>
+      <c r="M76" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="S76" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="U76" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V76" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="W76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X76" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="AQ76" s="6"/>
     </row>
@@ -6566,9 +6557,6 @@
       <c r="V77" s="26"/>
       <c r="W77" s="26"/>
       <c r="X77" s="21"/>
-      <c r="Y77">
-        <v>7</v>
-      </c>
       <c r="Z77">
         <v>1</v>
       </c>
@@ -6625,8 +6613,8 @@
       <c r="V78" s="33"/>
       <c r="W78" s="33"/>
       <c r="X78" s="37"/>
-      <c r="Y78" s="24">
-        <v>5</v>
+      <c r="Y78">
+        <v>7</v>
       </c>
       <c r="Z78">
         <v>1</v>
@@ -6688,8 +6676,8 @@
       </c>
       <c r="W79" s="26"/>
       <c r="X79" s="21"/>
-      <c r="Y79">
-        <v>4</v>
+      <c r="Y79" s="24">
+        <v>5</v>
       </c>
       <c r="Z79">
         <v>5</v>
@@ -6746,7 +6734,7 @@
       <c r="W80" s="33"/>
       <c r="X80" s="37"/>
       <c r="Y80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z80">
         <v>1</v>
@@ -6799,12 +6787,12 @@
       <c r="W81" s="26"/>
       <c r="X81" s="21"/>
       <c r="Y81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z81" s="6"/>
       <c r="AQ81" s="6"/>
     </row>
-    <row r="82" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -6816,17 +6804,13 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
-      <c r="M82" t="s">
-        <v>30</v>
-      </c>
-      <c r="S82" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y82" s="6"/>
+      <c r="Y82">
+        <v>4</v>
+      </c>
       <c r="Z82" s="6"/>
       <c r="AQ82" s="6"/>
     </row>
-    <row r="83" spans="1:43" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -6838,31 +6822,19 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
-      <c r="M83" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="28"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="28"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" t="s">
-        <v>36</v>
-      </c>
+      <c r="M83" t="s">
+        <v>30</v>
+      </c>
+      <c r="S83" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y83" s="6"/>
       <c r="Z83" t="s">
         <v>35</v>
       </c>
       <c r="AQ83" s="6"/>
     </row>
-    <row r="84" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="17"/>
       <c r="C84" s="6"/>
@@ -6874,41 +6846,24 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="M84" s="46">
-        <v>1</v>
-      </c>
-      <c r="N84" s="58">
-        <v>2</v>
-      </c>
-      <c r="O84" s="49">
-        <v>3</v>
-      </c>
-      <c r="P84" s="53">
-        <v>4</v>
-      </c>
-      <c r="Q84" s="50">
-        <v>5</v>
-      </c>
-      <c r="R84" s="44">
-        <v>6</v>
-      </c>
-      <c r="S84" s="46">
-        <v>1</v>
-      </c>
-      <c r="T84" s="49">
-        <v>2</v>
-      </c>
-      <c r="U84" s="49">
-        <v>3</v>
-      </c>
-      <c r="V84" s="53">
-        <v>4</v>
-      </c>
-      <c r="W84" s="50">
-        <v>5</v>
-      </c>
-      <c r="X84" s="44">
-        <v>6</v>
+      <c r="M84" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="16"/>
+      <c r="Y84" t="s">
+        <v>36</v>
       </c>
       <c r="AQ84" s="6"/>
     </row>
@@ -6926,30 +6881,41 @@
       <c r="K85" s="6">
         <v>1</v>
       </c>
-      <c r="M85" s="47"/>
-      <c r="N85" s="50"/>
-      <c r="O85" s="50">
-        <v>1</v>
-      </c>
-      <c r="P85" s="50"/>
+      <c r="M85" s="46">
+        <v>1</v>
+      </c>
+      <c r="N85" s="58">
+        <v>2</v>
+      </c>
+      <c r="O85" s="49">
+        <v>3</v>
+      </c>
+      <c r="P85" s="53">
+        <v>4</v>
+      </c>
       <c r="Q85" s="50">
+        <v>5</v>
+      </c>
+      <c r="R85" s="44">
+        <v>6</v>
+      </c>
+      <c r="S85" s="46">
+        <v>1</v>
+      </c>
+      <c r="T85" s="49">
+        <v>2</v>
+      </c>
+      <c r="U85" s="49">
         <v>3</v>
       </c>
-      <c r="R85" s="21">
-        <v>9</v>
-      </c>
-      <c r="S85" s="48"/>
-      <c r="T85" s="50">
-        <v>2</v>
-      </c>
-      <c r="U85" s="50"/>
-      <c r="V85" s="51"/>
-      <c r="W85" s="50"/>
-      <c r="X85" s="21">
-        <v>2</v>
-      </c>
-      <c r="Y85">
+      <c r="V85" s="53">
         <v>4</v>
+      </c>
+      <c r="W85" s="50">
+        <v>5</v>
+      </c>
+      <c r="X85" s="44">
+        <v>6</v>
       </c>
       <c r="Z85" s="24">
         <v>13</v>
@@ -6970,30 +6936,30 @@
       <c r="K86" s="6">
         <v>2</v>
       </c>
-      <c r="M86" s="48"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51">
+      <c r="M86" s="47"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50">
+        <v>1</v>
+      </c>
+      <c r="P86" s="50"/>
+      <c r="Q86" s="50">
         <v>3</v>
       </c>
-      <c r="R86" s="37">
+      <c r="R86" s="21">
         <v>9</v>
       </c>
       <c r="S86" s="48"/>
-      <c r="T86" s="51"/>
-      <c r="U86" s="51">
-        <v>3</v>
-      </c>
+      <c r="T86" s="50">
+        <v>2</v>
+      </c>
+      <c r="U86" s="50"/>
       <c r="V86" s="51"/>
-      <c r="W86" s="51">
+      <c r="W86" s="50"/>
+      <c r="X86" s="21">
         <v>2</v>
       </c>
-      <c r="X86" s="37">
-        <v>5</v>
-      </c>
-      <c r="Y86" s="24">
-        <v>10</v>
+      <c r="Y86">
+        <v>4</v>
       </c>
       <c r="Z86">
         <v>12</v>
@@ -7014,32 +6980,30 @@
       <c r="K87" s="24">
         <v>3</v>
       </c>
-      <c r="M87" s="47"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50">
-        <v>1</v>
-      </c>
-      <c r="P87" s="50"/>
-      <c r="Q87" s="50">
+      <c r="M87" s="48"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51">
         <v>3</v>
       </c>
-      <c r="R87" s="21">
-        <v>4</v>
-      </c>
-      <c r="S87" s="47"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="50">
+      <c r="R87" s="37">
+        <v>9</v>
+      </c>
+      <c r="S87" s="48"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51">
+        <v>3</v>
+      </c>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51">
         <v>2</v>
       </c>
-      <c r="V87" s="50"/>
-      <c r="W87" s="50">
-        <v>1</v>
-      </c>
-      <c r="X87" s="21">
+      <c r="X87" s="37">
+        <v>5</v>
+      </c>
+      <c r="Y87" s="24">
         <v>10</v>
-      </c>
-      <c r="Y87">
-        <v>13</v>
       </c>
       <c r="Z87" s="24">
         <v>8</v>
@@ -7060,30 +7024,32 @@
       <c r="K88" s="24">
         <v>4</v>
       </c>
-      <c r="M88" s="48"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="52">
-        <v>1</v>
-      </c>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51">
+      <c r="M88" s="47"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50">
+        <v>1</v>
+      </c>
+      <c r="P88" s="50"/>
+      <c r="Q88" s="50">
+        <v>3</v>
+      </c>
+      <c r="R88" s="21">
         <v>4</v>
       </c>
-      <c r="R88" s="37">
-        <v>3</v>
-      </c>
-      <c r="S88" s="48"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51"/>
-      <c r="W88" s="51">
+      <c r="S88" s="47"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50">
         <v>2</v>
       </c>
-      <c r="X88" s="37">
-        <v>6</v>
+      <c r="V88" s="50"/>
+      <c r="W88" s="50">
+        <v>1</v>
+      </c>
+      <c r="X88" s="21">
+        <v>10</v>
       </c>
       <c r="Y88">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z88" s="24">
         <v>8</v>
@@ -7104,35 +7070,37 @@
       <c r="K89" s="24">
         <v>5</v>
       </c>
-      <c r="M89" s="47"/>
+      <c r="M89" s="48"/>
       <c r="N89" s="51"/>
-      <c r="O89" s="50">
-        <v>1</v>
-      </c>
-      <c r="P89" s="50"/>
-      <c r="Q89" s="50">
+      <c r="O89" s="52">
+        <v>1</v>
+      </c>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51">
+        <v>4</v>
+      </c>
+      <c r="R89" s="37">
+        <v>3</v>
+      </c>
+      <c r="S89" s="48"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51">
         <v>2</v>
       </c>
-      <c r="R89" s="21">
-        <v>13</v>
-      </c>
-      <c r="S89" s="47"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="50"/>
-      <c r="V89" s="50"/>
-      <c r="W89" s="50"/>
-      <c r="X89" s="21">
-        <v>3</v>
+      <c r="X89" s="37">
+        <v>6</v>
       </c>
       <c r="Y89">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z89" s="24">
         <v>16</v>
       </c>
       <c r="AQ89" s="6"/>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -7144,14 +7112,32 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="50">
+        <v>1</v>
+      </c>
+      <c r="P90" s="50"/>
+      <c r="Q90" s="50">
+        <v>2</v>
+      </c>
+      <c r="R90" s="21">
+        <v>13</v>
+      </c>
+      <c r="S90" s="47"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="50"/>
+      <c r="V90" s="50"/>
+      <c r="W90" s="50"/>
+      <c r="X90" s="21">
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <v>3</v>
+      </c>
       <c r="AQ90" s="6"/>
     </row>
-    <row r="91" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -7163,18 +7149,14 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
-      <c r="L91" t="s">
-        <v>30</v>
-      </c>
-      <c r="P91" s="22"/>
-      <c r="S91" t="s">
-        <v>29</v>
-      </c>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
       <c r="AQ91" s="6"/>
     </row>
-    <row r="92" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="17"/>
       <c r="C92" s="6"/>
@@ -7186,28 +7168,18 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="17"/>
-      <c r="N92" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O92" s="28"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="T92" s="28"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="16"/>
-      <c r="W92" t="s">
-        <v>36</v>
-      </c>
-      <c r="X92" t="s">
-        <v>35</v>
-      </c>
+      <c r="L92" t="s">
+        <v>30</v>
+      </c>
+      <c r="P92" s="22"/>
+      <c r="S92" t="s">
+        <v>29</v>
+      </c>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
       <c r="AQ92" s="6"/>
     </row>
-    <row r="93" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -7219,32 +7191,24 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
-      <c r="N93" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="O93" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="P93" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q93" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="R93" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="S93" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="T93" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="U93" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="V93" s="21" t="s">
-        <v>17</v>
+      <c r="N93" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O93" s="28"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="T93" s="28"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="16"/>
+      <c r="W93" t="s">
+        <v>36</v>
+      </c>
+      <c r="X93" t="s">
+        <v>35</v>
       </c>
       <c r="Z93" s="6"/>
       <c r="AQ93" s="6"/>
@@ -7263,21 +7227,32 @@
       <c r="K94" s="6">
         <v>1</v>
       </c>
-      <c r="N94" s="47"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26">
-        <v>1</v>
-      </c>
-      <c r="R94" s="21">
-        <v>1</v>
-      </c>
-      <c r="S94" s="47"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="50"/>
-      <c r="V94" s="21"/>
-      <c r="X94">
-        <v>2</v>
+      <c r="N94" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="P94" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q94" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="R94" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="S94" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="U94" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="V94" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="AQ94" s="6"/>
     </row>
@@ -7295,24 +7270,21 @@
       <c r="K95" s="6">
         <v>2</v>
       </c>
-      <c r="N95" s="48">
-        <v>1</v>
-      </c>
-      <c r="O95" s="33"/>
-      <c r="P95" s="33"/>
-      <c r="Q95" s="33"/>
-      <c r="R95" s="37"/>
-      <c r="S95" s="48">
-        <v>1</v>
-      </c>
-      <c r="T95" s="51"/>
-      <c r="U95" s="51"/>
-      <c r="V95" s="37"/>
-      <c r="W95">
-        <v>1</v>
-      </c>
+      <c r="N95" s="47"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26">
+        <v>1</v>
+      </c>
+      <c r="R95" s="21">
+        <v>1</v>
+      </c>
+      <c r="S95" s="47"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="21"/>
       <c r="X95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ95" s="6"/>
     </row>
@@ -7330,15 +7302,25 @@
       <c r="K96" s="6">
         <v>3</v>
       </c>
-      <c r="N96" s="47"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="47"/>
-      <c r="T96" s="50"/>
-      <c r="U96" s="50"/>
-      <c r="V96" s="21"/>
+      <c r="N96" s="48">
+        <v>1</v>
+      </c>
+      <c r="O96" s="33"/>
+      <c r="P96" s="33"/>
+      <c r="Q96" s="33"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="48">
+        <v>1</v>
+      </c>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="37"/>
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>1</v>
+      </c>
       <c r="AQ96" s="6"/>
     </row>
     <row r="97" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7355,27 +7337,15 @@
       <c r="K97" s="24">
         <v>4</v>
       </c>
-      <c r="N97" s="48">
-        <v>1</v>
-      </c>
-      <c r="O97" s="33"/>
-      <c r="P97" s="33"/>
-      <c r="Q97" s="33">
-        <v>1</v>
-      </c>
-      <c r="R97" s="37"/>
-      <c r="S97" s="48">
-        <v>1</v>
-      </c>
-      <c r="T97" s="51"/>
-      <c r="U97" s="51"/>
-      <c r="V97" s="37"/>
-      <c r="W97">
-        <v>1</v>
-      </c>
-      <c r="X97">
-        <v>2</v>
-      </c>
+      <c r="N97" s="47"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="47"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="50"/>
+      <c r="V97" s="21"/>
       <c r="AQ97" s="6"/>
     </row>
     <row r="98" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7392,25 +7362,45 @@
       <c r="K98" s="24">
         <v>5</v>
       </c>
-      <c r="N98" s="47">
-        <v>2</v>
-      </c>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="47"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="50"/>
-      <c r="V98" s="21"/>
+      <c r="N98" s="48">
+        <v>1</v>
+      </c>
+      <c r="O98" s="33"/>
+      <c r="P98" s="33"/>
+      <c r="Q98" s="33">
+        <v>1</v>
+      </c>
+      <c r="R98" s="37"/>
+      <c r="S98" s="48">
+        <v>1</v>
+      </c>
+      <c r="T98" s="51"/>
+      <c r="U98" s="51"/>
+      <c r="V98" s="37"/>
+      <c r="W98">
+        <v>1</v>
+      </c>
       <c r="X98">
         <v>2</v>
       </c>
       <c r="AQ98" s="6"/>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K99" s="24"/>
-      <c r="S99" s="6"/>
+      <c r="N99" s="47">
+        <v>2</v>
+      </c>
+      <c r="O99" s="26"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="26"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="47"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="50"/>
+      <c r="V99" s="21"/>
+      <c r="X99">
+        <v>2</v>
+      </c>
       <c r="AQ99" s="6"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
